--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="160">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -453,6 +459,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -541,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:H135"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -553,6 +562,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.25" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -574,185 +584,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -774,2485 +814,2860 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B106" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E106" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>146</v>
+        <v>10</v>
+      </c>
+      <c r="G131" s="2" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -1953,7 +1953,7 @@
         <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>91</v>
@@ -2482,7 +2482,7 @@
         <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>111</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="161">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,49 +32,52 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Atto estero di nascita originale o copia autentica</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Documentazione che comprovi possesso di ulteriore cittadinanza</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Atto estero di nascita originale o copia autentica</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di cittadinanza dell'interessato</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>Documentazione che comprovi possesso di ulteriore cittadinanza</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -815,2859 +818,2859 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B104" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="162">
   <si>
     <t>Sezione</t>
   </si>
@@ -434,6 +434,9 @@
     <t>numeroDocumento</t>
   </si>
   <si>
+    <t>Tipologia documento</t>
+  </si>
+  <si>
     <t>tipologiaDocumento</t>
   </si>
   <si>
@@ -464,7 +467,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -565,7 +568,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.25" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2997,7 +3000,7 @@
         <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3011,7 +3014,7 @@
         <v>136</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
@@ -3020,7 +3023,7 @@
         <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3034,7 +3037,7 @@
         <v>136</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
@@ -3043,7 +3046,7 @@
         <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3057,7 +3060,7 @@
         <v>136</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
@@ -3066,7 +3069,7 @@
         <v>138</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3077,7 +3080,7 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>38</v>
@@ -3086,21 +3089,21 @@
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>40</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>41</v>
@@ -3109,7 +3112,7 @@
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>42</v>
@@ -3118,12 +3121,12 @@
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>45</v>
@@ -3132,7 +3135,7 @@
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>46</v>
@@ -3141,12 +3144,12 @@
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>47</v>
@@ -3155,7 +3158,7 @@
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>48</v>
@@ -3164,12 +3167,12 @@
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>93</v>
@@ -3178,7 +3181,7 @@
         <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>50</v>
@@ -3187,12 +3190,12 @@
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>94</v>
@@ -3201,7 +3204,7 @@
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>52</v>
@@ -3210,12 +3213,12 @@
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>95</v>
@@ -3224,7 +3227,7 @@
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>54</v>
@@ -3233,12 +3236,12 @@
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>96</v>
@@ -3247,21 +3250,21 @@
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>97</v>
@@ -3270,7 +3273,7 @@
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>58</v>
@@ -3279,12 +3282,12 @@
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
         <v>98</v>
@@ -3293,21 +3296,21 @@
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>99</v>
@@ -3316,7 +3319,7 @@
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>62</v>
@@ -3325,12 +3328,12 @@
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>100</v>
@@ -3339,7 +3342,7 @@
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>64</v>
@@ -3348,12 +3351,12 @@
         <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>101</v>
@@ -3362,7 +3365,7 @@
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>66</v>
@@ -3371,12 +3374,12 @@
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>102</v>
@@ -3385,7 +3388,7 @@
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>68</v>
@@ -3394,12 +3397,12 @@
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>103</v>
@@ -3408,7 +3411,7 @@
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>70</v>
@@ -3417,12 +3420,12 @@
         <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>104</v>
@@ -3431,21 +3434,21 @@
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>72</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>105</v>
@@ -3454,7 +3457,7 @@
         <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>74</v>
@@ -3463,12 +3466,12 @@
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>106</v>
@@ -3477,21 +3480,21 @@
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>107</v>
@@ -3500,21 +3503,21 @@
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>79</v>
@@ -3523,7 +3526,7 @@
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>80</v>
@@ -3532,12 +3535,12 @@
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>81</v>
@@ -3546,7 +3549,7 @@
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>82</v>
@@ -3555,12 +3558,12 @@
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>83</v>
@@ -3569,7 +3572,7 @@
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>84</v>
@@ -3578,24 +3581,24 @@
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3606,19 +3609,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>18</v>
@@ -3629,10 +3632,10 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
@@ -3641,7 +3644,7 @@
         <v>24</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3652,10 +3655,10 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
@@ -3664,7 +3667,7 @@
         <v>24</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -786,7 +786,7 @@
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -197,6 +197,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -414,6 +420,9 @@
   </si>
   <si>
     <t>nomeComuneEnte</t>
+  </si>
+  <si>
+    <t>comuneEstero</t>
   </si>
   <si>
     <t>Sentenza Revoca Adozione</t>
@@ -556,7 +565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H135"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1200,7 +1209,7 @@
         <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>39</v>
@@ -1292,7 +1301,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
@@ -1324,7 +1333,7 @@
         <v>72</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>26</v>
@@ -1347,7 +1356,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
@@ -1370,7 +1379,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -1407,7 +1416,7 @@
         <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>39</v>
@@ -1416,7 +1425,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1479,10 +1488,10 @@
         <v>13</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1496,16 +1505,16 @@
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1519,13 +1528,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>90</v>
@@ -1539,22 +1548,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1562,22 +1571,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1585,19 +1594,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1608,19 +1617,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1640,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1654,19 +1663,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1677,19 +1686,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1700,19 +1709,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1723,19 +1732,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1746,19 +1755,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1769,19 +1778,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1801,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1815,7 +1824,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>101</v>
@@ -1824,10 +1833,10 @@
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1838,7 +1847,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>102</v>
@@ -1847,10 +1856,10 @@
         <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1861,19 +1870,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1884,19 +1893,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1907,7 +1916,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>105</v>
@@ -1916,10 +1925,10 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1930,7 +1939,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>106</v>
@@ -1939,10 +1948,10 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1953,7 +1962,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>107</v>
@@ -1962,10 +1971,10 @@
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1985,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2008,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2031,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2054,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2068,22 +2077,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>26</v>
@@ -2091,19 +2100,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="2" t="s">
+      <c r="E67" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2114,22 +2123,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2137,19 +2146,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2169,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2192,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2215,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2238,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2252,7 +2261,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
@@ -2261,10 +2270,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2275,7 +2284,7 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
@@ -2284,10 +2293,10 @@
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2298,19 +2307,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2330,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2344,19 +2353,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2367,19 +2376,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2390,19 +2399,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2422,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2445,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2468,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2491,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2514,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2537,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2560,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2583,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2606,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E89" s="2" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2620,19 +2629,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>116</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2643,19 +2652,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2675,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2698,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2712,19 +2721,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2735,22 +2744,22 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
         <v>26</v>
@@ -2758,19 +2767,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2781,22 +2790,22 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
         <v>26</v>
@@ -2804,22 +2813,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>26</v>
@@ -2827,19 +2836,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="E99" s="2" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2850,22 +2859,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>120</v>
-      </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>26</v>
@@ -2873,19 +2882,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>126</v>
+        <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2896,19 +2905,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2928,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2942,19 +2951,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2965,10 +2974,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>13</v>
@@ -2977,7 +2986,7 @@
         <v>138</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -2988,10 +2997,10 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
@@ -3000,7 +3009,7 @@
         <v>138</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3011,10 +3020,10 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
@@ -3023,7 +3032,7 @@
         <v>138</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3034,10 +3043,10 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
@@ -3046,7 +3055,7 @@
         <v>138</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3066,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3080,599 +3089,714 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>41</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>151</v>
+        <v>26</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>153</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="E132" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="G132" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F132" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="2" t="s">
+      <c r="E133" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G133" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F133" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B134" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D134" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E134" s="2" t="s">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="E135" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C135" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D135" s="2" t="s">
+      <c r="F138" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F135" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="E139" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -2888,7 +2888,7 @@
         <v>61</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>118</v>
@@ -2897,7 +2897,7 @@
         <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>26</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -476,7 +476,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -577,7 +580,7 @@
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.25" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3690,7 +3693,7 @@
         <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
@@ -3710,19 +3713,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3733,19 +3736,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
@@ -3756,10 +3759,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
@@ -3768,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3779,10 +3782,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
@@ -3791,7 +3794,7 @@
         <v>24</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="165">
   <si>
     <t>Sezione</t>
   </si>
@@ -477,9 +477,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3693,7 +3690,7 @@
         <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
@@ -3713,19 +3710,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="C137" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C137" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D137" s="2" t="s">
+      <c r="E137" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="E137" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3736,19 +3733,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D138" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
@@ -3759,10 +3756,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
@@ -3771,7 +3768,7 @@
         <v>24</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3782,10 +3779,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
@@ -3794,7 +3791,7 @@
         <v>24</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="166">
   <si>
     <t>Sezione</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -3690,7 +3693,7 @@
         <v>151</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
@@ -3710,19 +3713,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3733,19 +3736,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>18</v>
@@ -3756,10 +3759,10 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
@@ -3768,7 +3771,7 @@
         <v>24</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3779,10 +3782,10 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>13</v>
@@ -3791,7 +3794,7 @@
         <v>24</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="176">
   <si>
     <t>Sezione</t>
   </si>
@@ -257,6 +257,30 @@
     <t>indirizzoResidenza</t>
   </si>
   <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
+  </si>
+  <si>
     <t>flag dichiarante</t>
   </si>
   <si>
@@ -342,6 +366,12 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>Trasmissione residenza estera</t>
+  </si>
+  <si>
+    <t>flagTrasmissioneResidenzaEstera</t>
   </si>
   <si>
     <t>Indirizzo PEC</t>
@@ -568,7 +598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -578,7 +608,7 @@
     <col min="2" max="2" width="59.18359375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.65234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="27.25" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="30.5234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
@@ -1442,7 +1472,7 @@
         <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
@@ -1465,7 +1495,7 @@
         <v>83</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>39</v>
@@ -1488,7 +1518,7 @@
         <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>39</v>
@@ -1511,13 +1541,13 @@
         <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1531,13 +1561,13 @@
         <v>37</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>90</v>
@@ -1557,10 +1587,10 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>92</v>
@@ -1574,22 +1604,22 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>26</v>
@@ -1597,19 +1627,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1650,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1673,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1666,22 +1696,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1689,19 +1719,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1742,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1765,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1788,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1811,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1834,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1857,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1880,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>94</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1903,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1926,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1949,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1942,19 +1972,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1965,19 +1995,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1988,19 +2018,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2041,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2034,19 +2064,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>81</v>
+        <v>114</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2057,19 +2087,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2080,19 +2110,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2103,19 +2133,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2126,22 +2156,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>26</v>
@@ -2149,19 +2179,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2202,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2225,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2218,19 +2248,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2241,19 +2271,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2264,19 +2294,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2287,19 +2317,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2310,19 +2340,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2333,22 +2363,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>26</v>
@@ -2356,19 +2386,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2409,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>45</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2432,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2425,7 +2455,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>103</v>
@@ -2434,10 +2464,10 @@
         <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2448,7 +2478,7 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>104</v>
@@ -2457,10 +2487,10 @@
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2471,7 +2501,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>105</v>
@@ -2480,10 +2510,10 @@
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2494,7 +2524,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>106</v>
@@ -2503,10 +2533,10 @@
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2517,7 +2547,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>107</v>
@@ -2526,10 +2556,10 @@
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2540,7 +2570,7 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>108</v>
@@ -2549,10 +2579,10 @@
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2593,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2586,19 +2616,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2609,19 +2639,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2662,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2685,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2708,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2701,19 +2731,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2724,19 +2754,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2747,19 +2777,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="E95" s="2" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2800,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>127</v>
+        <v>80</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2823,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2816,22 +2846,22 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
         <v>26</v>
@@ -2839,19 +2869,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2862,22 +2892,22 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
         <v>26</v>
@@ -2885,22 +2915,22 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>136</v>
+        <v>84</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>26</v>
@@ -2908,19 +2938,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2961,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2984,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -2977,19 +3007,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3030,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3053,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3076,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3099,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3122,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3145,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3138,22 +3168,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E112" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>148</v>
-      </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>26</v>
@@ -3161,19 +3191,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3184,622 +3214,944 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>95</v>
+        <v>132</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>52</v>
+        <v>139</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="2" t="s">
+      <c r="E123" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="F123" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B126" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B127" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E127" s="2" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>154</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>153</v>
+        <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>160</v>
+        <v>61</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B139" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E139" s="2" t="s">
-        <v>163</v>
+        <v>64</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>26</v>
+        <v>164</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B140" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G140" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C140" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D140" s="2" t="s">
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F140" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G140" s="2" t="s">
+      <c r="E153" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="177">
   <si>
     <t>Sezione</t>
   </si>
@@ -149,6 +149,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -341,10 +347,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -598,7 +601,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H154"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1058,7 +1061,7 @@
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>39</v>
@@ -1150,7 +1153,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>39</v>
@@ -1182,7 +1185,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>26</v>
@@ -1205,7 +1208,7 @@
         <v>58</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>26</v>
@@ -1228,7 +1231,7 @@
         <v>60</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>26</v>
@@ -1251,7 +1254,7 @@
         <v>62</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>26</v>
@@ -1265,7 +1268,7 @@
         <v>63</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>39</v>
@@ -1357,7 +1360,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
@@ -1389,7 +1392,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
@@ -1412,7 +1415,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -1435,7 +1438,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1481,7 +1484,7 @@
         <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1564,7 +1567,7 @@
         <v>89</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>39</v>
@@ -1636,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1653,16 +1656,16 @@
         <v>37</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1676,13 +1679,13 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>100</v>
@@ -1696,22 +1699,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1719,22 +1722,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1742,19 +1745,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1765,19 +1768,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1788,19 +1791,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1811,19 +1814,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E53" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1834,19 +1837,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1857,19 +1860,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1880,7 +1883,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>107</v>
@@ -1889,10 +1892,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>108</v>
@@ -1912,10 +1915,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1926,19 +1929,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1949,19 +1952,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1972,19 +1975,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1995,19 +1998,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2018,19 +2021,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2041,19 +2044,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2064,19 +2067,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2087,19 +2090,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2110,19 +2113,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2133,19 +2136,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2156,19 +2159,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2179,19 +2182,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2202,19 +2205,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2225,19 +2228,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2248,19 +2251,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2271,19 +2274,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2294,19 +2297,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2317,19 +2320,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2340,19 +2343,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2363,22 +2366,22 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>38</v>
+        <v>119</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>26</v>
@@ -2386,19 +2389,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2409,22 +2412,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>26</v>
@@ -2432,19 +2435,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2455,19 +2458,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2478,19 +2481,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2501,19 +2504,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2524,19 +2527,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2547,19 +2550,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2570,19 +2573,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2593,19 +2596,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2616,19 +2619,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2639,19 +2642,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2662,19 +2665,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2685,19 +2688,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2708,19 +2711,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2731,19 +2734,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2754,19 +2757,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2777,19 +2780,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2800,19 +2803,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2823,19 +2826,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2846,19 +2849,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2869,19 +2872,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2892,19 +2895,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2915,19 +2918,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2938,19 +2941,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2961,19 +2964,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2984,19 +2987,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3007,10 +3010,10 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
@@ -3019,7 +3022,7 @@
         <v>125</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3030,19 +3033,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>127</v>
+        <v>89</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>129</v>
+        <v>90</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3053,19 +3056,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3076,19 +3079,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E108" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3099,19 +3102,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3122,19 +3125,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3145,19 +3148,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3168,22 +3171,22 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>26</v>
@@ -3191,19 +3194,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3214,22 +3217,22 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
         <v>26</v>
@@ -3237,19 +3240,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>16</v>
@@ -3260,19 +3263,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3283,22 +3286,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>26</v>
@@ -3306,22 +3309,22 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="F118" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G118" s="2" t="s">
         <v>26</v>
@@ -3329,19 +3332,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3352,19 +3355,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3375,19 +3378,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3398,19 +3401,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3421,19 +3424,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3444,19 +3447,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3467,19 +3470,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B125" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D125" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E125" s="2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3490,19 +3493,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3513,19 +3516,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3536,622 +3539,714 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B130" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>163</v>
+        <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B150" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G150" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F150" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>171</v>
+        <v>92</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>172</v>
+        <v>93</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>173</v>
+        <v>94</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="C154" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" s="2" t="s">
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G154" s="2" t="s">
+      <c r="E158" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="179">
   <si>
     <t>Sezione</t>
   </si>
@@ -219,6 +219,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -601,7 +607,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H158"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1337,7 +1343,7 @@
         <v>69</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>39</v>
@@ -1360,7 +1366,7 @@
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>39</v>
@@ -1392,7 +1398,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
@@ -1415,7 +1421,7 @@
         <v>76</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -1438,7 +1444,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1461,7 +1467,7 @@
         <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1507,7 +1513,7 @@
         <v>84</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1590,7 +1596,7 @@
         <v>91</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>39</v>
@@ -1662,10 +1668,10 @@
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1679,16 +1685,16 @@
         <v>37</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1702,13 +1708,13 @@
         <v>37</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>102</v>
@@ -1722,22 +1728,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="F49" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1745,22 +1751,22 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>26</v>
@@ -1768,19 +1774,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1797,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1820,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1843,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1866,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1889,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1912,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1935,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1958,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1981,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2004,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2027,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2050,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2067,19 +2073,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2090,7 +2096,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>114</v>
@@ -2099,10 +2105,10 @@
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2113,7 +2119,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>115</v>
@@ -2122,10 +2128,10 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2136,7 +2142,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>116</v>
@@ -2145,10 +2151,10 @@
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2159,7 +2165,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>117</v>
@@ -2168,10 +2174,10 @@
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2182,7 +2188,7 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>118</v>
@@ -2191,10 +2197,10 @@
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2205,19 +2211,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2228,19 +2234,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2251,19 +2257,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2274,19 +2280,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2297,19 +2303,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2320,19 +2326,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2343,19 +2349,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2366,19 +2372,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2389,19 +2395,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2412,22 +2418,22 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>38</v>
+        <v>121</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>26</v>
@@ -2435,19 +2441,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2458,22 +2464,22 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>26</v>
@@ -2481,19 +2487,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2504,19 +2510,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2527,19 +2533,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2550,19 +2556,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2573,19 +2579,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2596,19 +2602,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2619,7 +2625,7 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>109</v>
@@ -2628,10 +2634,10 @@
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2642,7 +2648,7 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>110</v>
@@ -2651,10 +2657,10 @@
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2665,19 +2671,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2688,19 +2694,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2711,19 +2717,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2734,19 +2740,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2757,7 +2763,7 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>113</v>
@@ -2766,10 +2772,10 @@
         <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2780,19 +2786,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2803,19 +2809,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2826,19 +2832,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2849,19 +2855,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2872,19 +2878,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2895,19 +2901,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>91</v>
+        <v>118</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -2918,19 +2924,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -2941,19 +2947,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -2964,19 +2970,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -2987,19 +2993,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3010,19 +3016,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3033,19 +3039,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3056,19 +3062,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3079,19 +3085,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3102,19 +3108,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E109" s="2" t="s">
-        <v>130</v>
+        <v>92</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3125,19 +3131,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B110" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="E110" s="2" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3148,19 +3154,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3171,19 +3177,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3194,19 +3200,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3217,19 +3223,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3240,22 +3246,22 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
         <v>26</v>
@@ -3263,19 +3269,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3286,22 +3292,22 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>26</v>
@@ -3309,19 +3315,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>63</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>16</v>
@@ -3332,19 +3338,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>149</v>
+        <v>131</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3355,22 +3361,22 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D120" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E120" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="F120" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G120" s="2" t="s">
         <v>26</v>
@@ -3378,22 +3384,22 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F121" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G121" s="2" t="s">
         <v>26</v>
@@ -3401,19 +3407,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3424,19 +3430,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3447,19 +3453,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3470,19 +3476,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3496,16 +3502,16 @@
         <v>150</v>
       </c>
       <c r="B126" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C126" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D126" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="E126" s="2" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3519,16 +3525,16 @@
         <v>150</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3542,16 +3548,16 @@
         <v>150</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
@@ -3562,19 +3568,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3585,19 +3591,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
@@ -3608,645 +3614,737 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>38</v>
+        <v>158</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>65</v>
+        <v>111</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>115</v>
+        <v>69</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F151" s="2" t="s">
-        <v>164</v>
+        <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>10</v>
+        <v>166</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B154" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F154" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G154" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F155" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G155" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G156" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E156" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F156" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G157" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E157" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F157" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G157" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G158" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B158" s="2" t="s">
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C158" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D158" s="2" t="s">
+      <c r="C161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E161" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G158" s="2" t="s">
+      <c r="F161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="183">
   <si>
     <t>Sezione</t>
   </si>
@@ -77,6 +77,12 @@
     <t>197</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -354,6 +360,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -607,7 +619,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -853,859 +865,859 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>99</v>
@@ -1714,251 +1726,251 @@
         <v>13</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>40</v>
+        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C51" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>107</v>
+        <v>49</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>111</v>
@@ -1967,21 +1979,21 @@
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>112</v>
@@ -1990,872 +2002,872 @@
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>108</v>
+        <v>49</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>63</v>
+        <v>112</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>116</v>
@@ -2864,44 +2876,44 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>118</v>
@@ -2910,21 +2922,21 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>119</v>
@@ -2933,21 +2945,21 @@
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>120</v>
@@ -2956,99 +2968,99 @@
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>86</v>
@@ -3057,1295 +3069,1410 @@
         <v>10</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>121</v>
+        <v>87</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>132</v>
+        <v>92</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>131</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G120" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G121" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G122" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C124" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="E124" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G124" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B132" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G135" s="2" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B136" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>48</v>
+        <v>167</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>69</v>
+        <v>114</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B152" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="F152" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F154" s="2" t="s">
-        <v>166</v>
+        <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="E159" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D159" s="2" t="s">
+      <c r="G159" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E159" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="F159" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D160" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B160" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D160" s="2" t="s">
+      <c r="E160" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="G160" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="E160" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F160" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B161" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E161" s="2" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>26</v>
+        <v>171</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="E162" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C162" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E162" s="2" t="s">
+      <c r="C165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F162" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G162" s="2" t="s">
+      <c r="F165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1169" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="208">
   <si>
     <t>Sezione</t>
   </si>
@@ -516,6 +516,81 @@
   </si>
   <si>
     <t>dataRilascio</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -619,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -3790,22 +3865,22 @@
         <v>168</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="139">
@@ -3813,22 +3888,22 @@
         <v>168</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="140">
@@ -3836,22 +3911,22 @@
         <v>168</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141">
@@ -3859,22 +3934,22 @@
         <v>168</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>50</v>
+        <v>178</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="142">
@@ -3882,22 +3957,22 @@
         <v>168</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>51</v>
+        <v>179</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>52</v>
+        <v>180</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="143">
@@ -3905,22 +3980,22 @@
         <v>168</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>109</v>
+        <v>181</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="144">
@@ -3928,22 +4003,22 @@
         <v>168</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>110</v>
+        <v>182</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>56</v>
+        <v>183</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145">
@@ -3951,22 +4026,22 @@
         <v>168</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>111</v>
+        <v>184</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="146">
@@ -3974,22 +4049,22 @@
         <v>168</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>112</v>
+        <v>185</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>60</v>
+        <v>186</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="147">
@@ -3997,22 +4072,22 @@
         <v>168</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>62</v>
+        <v>188</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="148">
@@ -4020,22 +4095,22 @@
         <v>168</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>114</v>
+        <v>189</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>64</v>
+        <v>190</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="149">
@@ -4043,435 +4118,711 @@
         <v>168</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>66</v>
+        <v>192</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F153" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>118</v>
+        <v>51</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F155" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>172</v>
+        <v>115</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>176</v>
+        <v>117</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>177</v>
+        <v>71</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>178</v>
+        <v>72</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>180</v>
+        <v>74</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>28</v>
+        <v>196</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>181</v>
+        <v>119</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G171" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G172" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G173" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G174" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G175" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G177" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F167" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G167" s="2" t="s">
+      <c r="E178" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F178" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G178" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -4420,7 +4420,7 @@
         <v>67</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>194</v>
@@ -4443,7 +4443,7 @@
         <v>115</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>194</v>
@@ -4452,7 +4452,7 @@
         <v>70</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="G163" s="2" t="s">
         <v>196</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="212">
   <si>
     <t>Sezione</t>
   </si>
@@ -165,6 +165,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -694,7 +706,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1246,7 +1258,7 @@
         <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>41</v>
@@ -1269,7 +1281,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>41</v>
@@ -1315,7 +1327,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>41</v>
@@ -1338,7 +1350,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>41</v>
@@ -1347,7 +1359,7 @@
         <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>28</v>
@@ -1430,7 +1442,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>41</v>
@@ -1439,7 +1451,7 @@
         <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>28</v>
@@ -1453,7 +1465,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>41</v>
@@ -1476,7 +1488,7 @@
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>41</v>
@@ -1499,7 +1511,7 @@
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
@@ -1531,7 +1543,7 @@
         <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>28</v>
@@ -1646,7 +1658,7 @@
         <v>86</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1669,7 +1681,7 @@
         <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1692,7 +1704,7 @@
         <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>28</v>
@@ -1752,7 +1764,7 @@
         <v>95</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>41</v>
@@ -1775,7 +1787,7 @@
         <v>97</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>41</v>
@@ -1824,10 +1836,10 @@
         <v>13</v>
       </c>
       <c r="D49" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1841,13 +1853,13 @@
         <v>39</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>104</v>
@@ -1867,13 +1879,13 @@
         <v>105</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1884,22 +1896,22 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="F52" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>28</v>
@@ -1907,19 +1919,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>39</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1930,22 +1942,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -1953,19 +1965,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1976,19 +1988,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1999,19 +2011,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2022,19 +2034,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -2045,19 +2057,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2068,19 +2080,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -2091,19 +2103,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2114,19 +2126,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2137,19 +2149,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2160,19 +2172,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2183,19 +2195,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2206,19 +2218,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2229,19 +2241,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2252,19 +2264,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2275,19 +2287,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2298,7 +2310,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>120</v>
@@ -2307,10 +2319,10 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2321,19 +2333,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>121</v>
+        <v>75</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2344,7 +2356,7 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>122</v>
@@ -2353,10 +2365,10 @@
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2367,7 +2379,7 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>123</v>
@@ -2376,10 +2388,10 @@
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2390,7 +2402,7 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>124</v>
@@ -2399,10 +2411,10 @@
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2413,19 +2425,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2436,19 +2448,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2459,19 +2471,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2482,19 +2494,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2505,19 +2517,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2528,19 +2540,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2551,19 +2563,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2574,19 +2586,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2597,19 +2609,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2620,22 +2632,22 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
         <v>28</v>
@@ -2643,19 +2655,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2666,19 +2678,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2689,19 +2701,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2712,22 +2724,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2735,19 +2747,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2758,19 +2770,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>110</v>
+        <v>47</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2781,19 +2793,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2804,19 +2816,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2827,19 +2839,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2850,19 +2862,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2873,19 +2885,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2896,19 +2908,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>67</v>
+        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2919,19 +2931,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2942,7 +2954,7 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>116</v>
@@ -2951,10 +2963,10 @@
         <v>9</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2965,19 +2977,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -2988,7 +3000,7 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>118</v>
@@ -2997,10 +3009,10 @@
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3011,19 +3023,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3034,19 +3046,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3057,19 +3069,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3080,19 +3092,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3103,19 +3115,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3126,19 +3138,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3149,19 +3161,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3172,19 +3184,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3195,19 +3207,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3218,19 +3230,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3241,19 +3253,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>89</v>
+        <v>127</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3264,19 +3276,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3287,19 +3299,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3310,19 +3322,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3333,19 +3345,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3356,19 +3368,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>10</v>
@@ -3379,19 +3391,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>137</v>
+        <v>93</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3402,19 +3414,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3425,19 +3437,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3448,19 +3460,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3471,19 +3483,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3494,22 +3506,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G122" s="2" t="s">
         <v>28</v>
@@ -3517,19 +3529,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3540,22 +3552,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G124" s="2" t="s">
         <v>28</v>
@@ -3563,22 +3575,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>65</v>
+        <v>145</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G125" s="2" t="s">
         <v>28</v>
@@ -3586,19 +3598,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3609,19 +3621,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3632,22 +3644,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B128" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="E128" s="2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3655,19 +3667,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E129" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3678,22 +3690,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>28</v>
@@ -3701,22 +3713,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>149</v>
+        <v>69</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3724,19 +3736,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3747,19 +3759,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3770,19 +3782,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3793,19 +3805,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3816,19 +3828,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3839,19 +3851,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3862,967 +3874,1151 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G138" s="2" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G139" s="2" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G140" s="2" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G141" s="2" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G143" s="2" t="s">
-        <v>172</v>
+        <v>28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>30</v>
+        <v>178</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>42</v>
+        <v>187</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>49</v>
+        <v>191</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>50</v>
+        <v>192</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B154" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C154" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D154" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>109</v>
+        <v>195</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>54</v>
+        <v>196</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>111</v>
+        <v>43</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>114</v>
+        <v>51</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F160" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F163" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="F164" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="F165" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>122</v>
+        <v>71</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>197</v>
+        <v>123</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B176" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D176" s="2" t="s">
+      <c r="E176" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G176" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F176" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G176" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B177" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
+      <c r="E177" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G177" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="E177" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F177" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G177" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B178" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E178" s="2" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>28</v>
+        <v>200</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="E179" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F179" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G179" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G180" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F182" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G182" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G184" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D179" s="2" t="s">
+      <c r="C185" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G185" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F179" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G179" s="2" t="s">
+      <c r="E186" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G186" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1309" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1505" uniqueCount="216">
   <si>
     <t>Sezione</t>
   </si>
@@ -119,174 +119,249 @@
     <t>minuto</t>
   </si>
   <si>
+    <t xml:space="preserve">Officiante </t>
+  </si>
+  <si>
+    <t>Ufficiale di stato civile delegato al giuramento di cittadinanza</t>
+  </si>
+  <si>
+    <t>evento.datiEventoCittadinanza</t>
+  </si>
+  <si>
+    <t>officiante</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Cognome</t>
+  </si>
+  <si>
+    <t>evento.ufficialeStatoCivile</t>
+  </si>
+  <si>
+    <t>cognome</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>nome</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
+    <t>Sesso</t>
+  </si>
+  <si>
+    <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
+    <t>Data nascita</t>
+  </si>
+  <si>
+    <t>dataNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita</t>
+  </si>
+  <si>
+    <t>idStatoNascita</t>
+  </si>
+  <si>
+    <t>Stato di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita</t>
+  </si>
+  <si>
+    <t>idProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Provincia di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita</t>
+  </si>
+  <si>
+    <t>idComuneNascita</t>
+  </si>
+  <si>
+    <t>Comune di nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
+    <t>Nazionalità</t>
+  </si>
+  <si>
+    <t>idNazionalita</t>
+  </si>
+  <si>
+    <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
+  </si>
+  <si>
+    <t>Stato di residenza</t>
+  </si>
+  <si>
+    <t>idStatoResidenza</t>
+  </si>
+  <si>
+    <t>Stato di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeStatoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza</t>
+  </si>
+  <si>
+    <t>idProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Provincia di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza</t>
+  </si>
+  <si>
+    <t>idComuneResidenza</t>
+  </si>
+  <si>
+    <t>Comune di residenza - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneResidenza</t>
+  </si>
+  <si>
+    <t>Indirizzo di residenza</t>
+  </si>
+  <si>
+    <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Dati Generali</t>
   </si>
   <si>
     <t>Riassunto della dichiarazione</t>
   </si>
   <si>
-    <t>evento.datiEventoCittadinanza</t>
-  </si>
-  <si>
     <t>riassuntoDichiarazione</t>
   </si>
   <si>
     <t>Intestatario</t>
   </si>
   <si>
-    <t>Cognome</t>
-  </si>
-  <si>
     <t>evento.intestatari[0]</t>
   </si>
   <si>
-    <t>cognome</t>
-  </si>
-  <si>
-    <t>Nome</t>
-  </si>
-  <si>
-    <t>nome</t>
-  </si>
-  <si>
     <t>Codice Fiscale</t>
   </si>
   <si>
     <t>codiceFiscale</t>
   </si>
   <si>
-    <t>Identificativo unico nazionale</t>
-  </si>
-  <si>
-    <t>idANPR</t>
-  </si>
-  <si>
-    <t>Sesso</t>
-  </si>
-  <si>
-    <t>sesso</t>
-  </si>
-  <si>
-    <t>Formato Data Nascita</t>
-  </si>
-  <si>
-    <t>idFormatodata</t>
-  </si>
-  <si>
-    <t>Formato Data Nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>formatodata</t>
-  </si>
-  <si>
-    <t>Data nascita</t>
-  </si>
-  <si>
-    <t>dataNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita</t>
   </si>
   <si>
-    <t>idStatoNascita</t>
-  </si>
-  <si>
     <t>Stato Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita</t>
   </si>
   <si>
-    <t>idProvinciaNascita</t>
-  </si>
-  <si>
     <t>Provincia Nascita - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita</t>
   </si>
   <si>
-    <t>idComuneNascita</t>
-  </si>
-  <si>
     <t>Comune Nascita - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneNascita</t>
-  </si>
-  <si>
-    <t>Località estera</t>
-  </si>
-  <si>
-    <t>localitaEsteraNascita</t>
-  </si>
-  <si>
-    <t>Nazionalità</t>
-  </si>
-  <si>
-    <t>idNazionalita</t>
-  </si>
-  <si>
     <t>Nazionalità   - Descrizione</t>
   </si>
   <si>
-    <t>nazionalita</t>
-  </si>
-  <si>
-    <t>Residenza non nota</t>
-  </si>
-  <si>
-    <t>flagIrreperibile</t>
-  </si>
-  <si>
     <t>Stato Residenza</t>
   </si>
   <si>
-    <t>idStatoResidenza</t>
-  </si>
-  <si>
     <t>Stato Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeStatoResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza</t>
   </si>
   <si>
-    <t>idProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Provincia Residenza - Descrizione</t>
   </si>
   <si>
-    <t>siglaProvinciaResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza</t>
   </si>
   <si>
-    <t>idComuneResidenza</t>
-  </si>
-  <si>
     <t>Comune Residenza - Descrizione</t>
   </si>
   <si>
-    <t>nomeComuneResidenza</t>
-  </si>
-  <si>
     <t>Indirizzo Residenza</t>
   </si>
   <si>
-    <t>indirizzoResidenza</t>
-  </si>
-  <si>
     <t>Provincia AIRE</t>
   </si>
   <si>
@@ -311,24 +386,9 @@
     <t>nomeComuneAIRE</t>
   </si>
   <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
     <t>flag firmatario</t>
   </si>
   <si>
-    <t>flagFirmatario</t>
-  </si>
-  <si>
     <t>Ulteriore cittadinanza di cui è in possesso</t>
   </si>
   <si>
@@ -353,54 +413,12 @@
     <t>evento.madre</t>
   </si>
   <si>
-    <t>Stato di nascita</t>
-  </si>
-  <si>
-    <t>Stato di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di nascita</t>
-  </si>
-  <si>
-    <t>Provincia di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di nascita</t>
-  </si>
-  <si>
-    <t>Comune di nascita - Descrizione</t>
-  </si>
-  <si>
-    <t>Nazionalità - Descrizione</t>
-  </si>
-  <si>
     <t>Comprensione</t>
   </si>
   <si>
     <t>tipoImpedimento</t>
   </si>
   <si>
-    <t>Stato di residenza</t>
-  </si>
-  <si>
-    <t>Stato di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Provincia di residenza</t>
-  </si>
-  <si>
-    <t>Provincia di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Comune di residenza</t>
-  </si>
-  <si>
-    <t>Comune di residenza - Descrizione</t>
-  </si>
-  <si>
-    <t>Indirizzo di residenza</t>
-  </si>
-  <si>
     <t>Trasmissione residenza estera</t>
   </si>
   <si>
@@ -542,9 +560,6 @@
     <t>idProvinciaRegistrazione</t>
   </si>
   <si>
-    <t>opzionale</t>
-  </si>
-  <si>
     <t>Provincia registrazione - Descrizione</t>
   </si>
   <si>
@@ -615,9 +630,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -706,7 +718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1132,18 +1144,18 @@
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>41</v>
@@ -1152,15 +1164,15 @@
         <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>43</v>
@@ -1178,12 +1190,12 @@
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>45</v>
@@ -1201,12 +1213,12 @@
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>47</v>
@@ -1224,18 +1236,18 @@
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>41</v>
@@ -1247,12 +1259,12 @@
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>51</v>
@@ -1270,12 +1282,12 @@
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>53</v>
@@ -1293,18 +1305,18 @@
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>41</v>
@@ -1316,18 +1328,18 @@
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>41</v>
@@ -1339,18 +1351,18 @@
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>41</v>
@@ -1362,12 +1374,12 @@
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>61</v>
@@ -1385,12 +1397,12 @@
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
@@ -1405,15 +1417,15 @@
         <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>65</v>
@@ -1431,12 +1443,12 @@
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>67</v>
@@ -1451,15 +1463,15 @@
         <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>69</v>
@@ -1477,18 +1489,18 @@
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>41</v>
@@ -1500,18 +1512,18 @@
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>41</v>
@@ -1523,12 +1535,12 @@
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>75</v>
@@ -1546,12 +1558,12 @@
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>77</v>
@@ -1569,12 +1581,12 @@
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>79</v>
@@ -1589,15 +1601,15 @@
         <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>81</v>
@@ -1615,12 +1627,12 @@
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>83</v>
@@ -1635,15 +1647,15 @@
         <v>84</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>85</v>
@@ -1661,12 +1673,12 @@
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>87</v>
@@ -1681,21 +1693,21 @@
         <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>41</v>
@@ -1704,21 +1716,21 @@
         <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>41</v>
@@ -1730,12 +1742,12 @@
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>93</v>
@@ -1753,24 +1765,24 @@
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1781,22 +1793,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>28</v>
@@ -1804,19 +1816,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1839,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1862,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1885,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1896,19 +1908,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1919,19 +1931,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1942,22 +1954,22 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>28</v>
@@ -1965,19 +1977,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1988,19 +2000,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -2011,19 +2023,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -2034,22 +2046,22 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>28</v>
@@ -2057,19 +2069,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -2080,22 +2092,22 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>55</v>
+        <v>107</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>28</v>
@@ -2103,19 +2115,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -2126,19 +2138,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -2149,19 +2161,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -2172,19 +2184,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -2195,19 +2207,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2218,22 +2230,22 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G66" s="2" t="s">
         <v>28</v>
@@ -2241,19 +2253,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2264,22 +2276,22 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>28</v>
@@ -2287,19 +2299,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2310,22 +2322,22 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>28</v>
@@ -2333,22 +2345,22 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>28</v>
@@ -2356,19 +2368,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2379,19 +2391,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2402,19 +2414,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2425,19 +2437,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2448,19 +2460,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2471,19 +2483,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>127</v>
+        <v>91</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2494,19 +2506,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2517,19 +2529,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2540,19 +2552,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2563,19 +2575,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2586,22 +2598,22 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>28</v>
@@ -2609,19 +2621,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2632,19 +2644,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2655,19 +2667,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2678,19 +2690,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2701,10 +2713,10 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
@@ -2713,7 +2725,7 @@
         <v>132</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2724,22 +2736,22 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
         <v>28</v>
@@ -2747,19 +2759,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2770,19 +2782,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
@@ -2793,19 +2805,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2816,19 +2828,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
@@ -2839,19 +2851,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
@@ -2862,19 +2874,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
@@ -2885,19 +2897,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
@@ -2908,19 +2920,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
@@ -2931,19 +2943,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
@@ -2954,19 +2966,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>10</v>
@@ -2977,19 +2989,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>10</v>
@@ -3000,19 +3012,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>10</v>
@@ -3023,19 +3035,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
@@ -3046,19 +3058,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
@@ -3069,19 +3081,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>10</v>
@@ -3092,19 +3104,19 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>10</v>
@@ -3115,19 +3127,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
@@ -3138,19 +3150,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
         <v>10</v>
@@ -3161,19 +3173,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
@@ -3184,19 +3196,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>10</v>
@@ -3207,19 +3219,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>10</v>
@@ -3230,19 +3242,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>10</v>
@@ -3253,19 +3265,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>10</v>
@@ -3276,19 +3288,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>10</v>
@@ -3299,19 +3311,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
@@ -3322,19 +3334,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>102</v>
+        <v>136</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>10</v>
@@ -3345,19 +3357,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>103</v>
+        <v>137</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>10</v>
@@ -3368,22 +3380,22 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G116" s="2" t="s">
         <v>28</v>
@@ -3391,19 +3403,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>10</v>
@@ -3414,19 +3426,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>10</v>
@@ -3437,19 +3449,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>10</v>
@@ -3460,19 +3472,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>10</v>
@@ -3483,19 +3495,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>10</v>
@@ -3506,19 +3518,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>138</v>
+        <v>53</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>140</v>
+        <v>54</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>10</v>
@@ -3529,19 +3541,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B123" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C123" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E123" s="2" t="s">
-        <v>142</v>
+        <v>56</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>10</v>
@@ -3552,19 +3564,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>143</v>
+        <v>57</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>10</v>
@@ -3575,19 +3587,19 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>10</v>
@@ -3598,19 +3610,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>10</v>
@@ -3621,19 +3633,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>150</v>
+        <v>64</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>10</v>
@@ -3644,22 +3656,22 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>151</v>
+        <v>65</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G128" s="2" t="s">
         <v>28</v>
@@ -3667,19 +3679,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>154</v>
+        <v>68</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>10</v>
@@ -3690,22 +3702,22 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>155</v>
+        <v>69</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>156</v>
+        <v>70</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G130" s="2" t="s">
         <v>28</v>
@@ -3713,22 +3725,22 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>157</v>
+        <v>72</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G131" s="2" t="s">
         <v>28</v>
@@ -3736,19 +3748,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>10</v>
@@ -3759,19 +3771,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B133" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C133" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D133" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="E133" s="2" t="s">
-        <v>142</v>
+        <v>74</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>10</v>
@@ -3782,19 +3794,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>143</v>
+        <v>75</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>10</v>
@@ -3805,19 +3817,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>150</v>
+        <v>78</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>10</v>
@@ -3828,19 +3840,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>151</v>
+        <v>79</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>10</v>
@@ -3851,19 +3863,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>153</v>
+        <v>81</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>154</v>
+        <v>82</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>10</v>
@@ -3874,19 +3886,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>155</v>
+        <v>83</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>156</v>
+        <v>84</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>10</v>
@@ -3897,19 +3909,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>85</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>163</v>
+        <v>86</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>10</v>
@@ -3920,19 +3932,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>10</v>
@@ -3943,19 +3955,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>166</v>
+        <v>89</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>10</v>
@@ -3966,19 +3978,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>168</v>
+        <v>91</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="F142" s="2" t="s">
         <v>10</v>
@@ -3989,19 +4001,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>171</v>
+        <v>94</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>10</v>
@@ -4012,922 +4024,922 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>173</v>
+        <v>116</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G144" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>177</v>
+        <v>118</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>178</v>
+        <v>119</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G145" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>179</v>
+        <v>120</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>180</v>
+        <v>121</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>181</v>
+        <v>122</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>189</v>
+        <v>149</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G152" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>191</v>
+        <v>151</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>192</v>
+        <v>152</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G153" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>193</v>
+        <v>153</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G154" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G155" s="2" t="s">
-        <v>176</v>
+        <v>28</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="F156" s="2" t="s">
-        <v>199</v>
+        <v>16</v>
       </c>
       <c r="G156" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
       <c r="F158" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>197</v>
+        <v>143</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="F159" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G159" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>51</v>
+        <v>144</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G160" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>53</v>
+        <v>147</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
       <c r="F161" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>55</v>
+        <v>149</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="F163" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G163" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>114</v>
+        <v>157</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G164" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>197</v>
+        <v>164</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>198</v>
+        <v>165</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>64</v>
+        <v>162</v>
       </c>
       <c r="F166" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G166" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>66</v>
+        <v>169</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G167" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>118</v>
+        <v>170</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>68</v>
+        <v>171</v>
       </c>
       <c r="F168" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G168" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>70</v>
+        <v>173</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G169" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>71</v>
+        <v>174</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>72</v>
+        <v>175</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G170" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>74</v>
+        <v>177</v>
       </c>
       <c r="F171" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>200</v>
+        <v>28</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G173" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G175" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>124</v>
+        <v>188</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>82</v>
+        <v>189</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G176" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>86</v>
+        <v>192</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G178" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>128</v>
+        <v>194</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>90</v>
+        <v>195</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>199</v>
+        <v>10</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B181" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="F181" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G182" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="B183" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C183" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F183" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G183" s="2" t="s">
-        <v>200</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184">
@@ -4935,22 +4947,22 @@
         <v>202</v>
       </c>
       <c r="B184" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D184" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C184" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="E184" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="G184" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="F184" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G184" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="185">
@@ -4958,22 +4970,22 @@
         <v>202</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>206</v>
+        <v>43</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>207</v>
+        <v>44</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="186">
@@ -4981,22 +4993,22 @@
         <v>202</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>208</v>
+        <v>45</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>26</v>
+        <v>203</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G186" s="2" t="s">
-        <v>28</v>
+        <v>205</v>
       </c>
     </row>
     <row r="187">
@@ -5004,21 +5016,665 @@
         <v>202</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G187" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G188" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G189" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G190" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G191" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G193" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G194" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G195" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G196" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G197" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G198" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G207" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G208" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G209" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G210" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G211" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G212" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C187" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D187" s="2" t="s">
+      <c r="C213" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F187" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G187" s="2" t="s">
+      <c r="E214" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G215" s="2" t="s">
         <v>28</v>
       </c>
     </row>
